--- a/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27150" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
     <t>战斗开始时增加角色10%的基础生命值加成。每次触发闪避时，对攻击者造成相当于本次攻击20%攻击的伤害</t>
   </si>
   <si>
-    <t>[{Tri:[0],Con:[9],Do:[500001]}]</t>
+    <t>[{Tri:[0],Con:[9],Do:[1000001]}]</t>
   </si>
   <si>
     <t>[{Con:[1,2,3,4,5],Trigger:5}]</t>
@@ -1150,7 +1150,7 @@
   <sheetPr/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="12360"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
   <si>
     <t>Key</t>
   </si>
@@ -112,7 +112,7 @@
     <t>String</t>
   </si>
   <si>
-    <t>Array&lt;Object{Tri:Array&lt;Number&gt;,Con:Array&lt;Number&gt;,Do:Array&lt;Number&gt;}&gt;</t>
+    <t>Array&lt;Object{Tri:Array&lt;Number&gt;,Con:Array&lt;Number&gt;,Do:Array&lt;Object{t:Number,e:Number}&gt;}&gt;</t>
   </si>
   <si>
     <t>Array&lt;Object{Con:Array&lt;Number&gt;,Trigger:Number}&gt;</t>
@@ -142,7 +142,7 @@
     <t>战斗开始时增加角色10%的基础生命值加成。每次触发闪避时，对攻击者造成相当于本次攻击20%攻击的伤害</t>
   </si>
   <si>
-    <t>[{Tri:[0],Con:[9],Do:[1000001]}]</t>
+    <t>[{Tri:[0],Con:[],Do:[{t:1,e:1000001}]}]</t>
   </si>
   <si>
     <t>[{Con:[1,2,3,4,5],Trigger:5}]</t>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>生命滋养-汲取</t>
+  </si>
+  <si>
+    <t>温水煮蛙</t>
+  </si>
+  <si>
+    <t>每次攻击前,都会获取10%的基础攻击力加成</t>
+  </si>
+  <si>
+    <t>[{Tri:[4],Con:[],Do:[{t:1,e:1000001}]}]</t>
+  </si>
+  <si>
+    <t>强健体魄</t>
   </si>
 </sst>
 </file>
@@ -1148,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1160,7 +1172,7 @@
     <col min="2" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="9.55833333333333" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="22.9416666666667" customWidth="1"/>
     <col min="7" max="7" width="19.4083333333333" customWidth="1"/>
     <col min="8" max="8" width="8.975" customWidth="1"/>
     <col min="9" max="9" width="20.375" customWidth="1"/>
@@ -1889,6 +1901,82 @@
         <v>41</v>
       </c>
     </row>
+    <row r="20" s="1" customFormat="1" spans="1:12">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:12">
+      <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="4">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
   <si>
     <t>Key</t>
   </si>
@@ -112,7 +112,7 @@
     <t>String</t>
   </si>
   <si>
-    <t>Array&lt;Object{Tri:Array&lt;Number&gt;,Con:Array&lt;Number&gt;,Do:Array&lt;Object{t:Number,e:Number}&gt;}&gt;</t>
+    <t>Array&lt;Object{Tri:Array&lt;Number&gt;,Con:Array&lt;Number&gt;,Do:Object{t:Number,e:Number}}&gt;</t>
   </si>
   <si>
     <t>Array&lt;Object{Con:Array&lt;Number&gt;,Trigger:Number}&gt;</t>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>战斗开始时，增加角色100%的复活概率，且复活后回复12%总血量</t>
-  </si>
-  <si>
-    <t>[{Tri:[],Con:[],Do:[]}]</t>
   </si>
   <si>
     <t>[]</t>
@@ -1163,7 +1160,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1404,7 +1401,7 @@
         <v>36</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:12">
@@ -1418,13 +1415,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -1442,7 +1439,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:12">
@@ -1456,13 +1453,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="G8" s="4">
         <v>3</v>
@@ -1480,7 +1477,7 @@
         <v>36</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:12">
@@ -1494,13 +1491,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4">
         <v>3</v>
@@ -1518,7 +1515,7 @@
         <v>36</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:12">
@@ -1532,13 +1529,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="4">
         <v>3</v>
@@ -1556,7 +1553,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:12">
@@ -1570,13 +1567,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="4">
         <v>3</v>
@@ -1594,7 +1591,7 @@
         <v>36</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:12">
@@ -1608,13 +1605,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4">
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="4">
         <v>3</v>
@@ -1632,7 +1629,7 @@
         <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:12">
@@ -1646,13 +1643,13 @@
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="4">
         <v>5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="4">
         <v>3</v>
@@ -1670,7 +1667,7 @@
         <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1684,13 +1681,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2">
         <v>4</v>
@@ -1708,7 +1705,7 @@
         <v>36</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:12">
@@ -1722,13 +1719,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="4">
         <v>2</v>
@@ -1746,7 +1743,7 @@
         <v>36</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:12">
@@ -1760,13 +1757,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="4">
         <v>2</v>
@@ -1784,7 +1781,7 @@
         <v>36</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:12">
@@ -1798,13 +1795,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="4">
         <v>3</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="4">
         <v>2</v>
@@ -1822,7 +1819,7 @@
         <v>36</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:12">
@@ -1836,13 +1833,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="4">
         <v>4</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
@@ -1860,7 +1857,7 @@
         <v>36</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:12">
@@ -1874,13 +1871,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="4">
         <v>5</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="4">
         <v>2</v>
@@ -1898,7 +1895,7 @@
         <v>36</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:12">
@@ -1912,13 +1909,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
@@ -1930,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:12">
@@ -1950,13 +1947,13 @@
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="4">
         <v>2</v>
@@ -1968,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
@@ -112,7 +112,7 @@
     <t>String</t>
   </si>
   <si>
-    <t>Array&lt;Object{Tri:Array&lt;Number&gt;,Con:Array&lt;Number&gt;,Do:Object{t:Number,e:Number}}&gt;</t>
+    <t>Array&lt;Object{Tri:Array&lt;Number&gt;,Con:Array&lt;Number&gt;,Do:Array&lt;Object{t:Number,e:Number}&gt;}&gt;</t>
   </si>
   <si>
     <t>Array&lt;Object{Con:Array&lt;Number&gt;,Trigger:Number}&gt;</t>
@@ -1159,8 +1159,8 @@
   <sheetPr/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="59">
   <si>
     <t>Key</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>EndCondition</t>
-  </si>
-  <si>
-    <t>Attr</t>
   </si>
   <si>
     <t>字段描述</t>
@@ -112,13 +109,10 @@
     <t>String</t>
   </si>
   <si>
-    <t>Array&lt;Object{Tri:Array&lt;Number&gt;,Con:Array&lt;Number&gt;,Do:Array&lt;Object{t:Number,e:Number}&gt;}&gt;</t>
-  </si>
-  <si>
-    <t>Array&lt;Object{Con:Array&lt;Number&gt;,Trigger:Number}&gt;</t>
-  </si>
-  <si>
-    <t>Array&lt;Object{Type:Number,Value:Number}&gt;</t>
+    <t>Object{Tri:Array&lt;Number&gt;,Con:Array&lt;Number&gt;,Do:Array&lt;Object{t:Number,e:Number}&gt;}</t>
+  </si>
+  <si>
+    <t>Array&lt;Number&gt;</t>
   </si>
   <si>
     <t>客户端类型</t>
@@ -142,13 +136,10 @@
     <t>战斗开始时增加角色10%的基础生命值加成。每次触发闪避时，对攻击者造成相当于本次攻击20%攻击的伤害</t>
   </si>
   <si>
-    <t>[{Tri:[0],Con:[],Do:[{t:1,e:1000001}]}]</t>
-  </si>
-  <si>
-    <t>[{Con:[1,2,3,4,5],Trigger:5}]</t>
-  </si>
-  <si>
-    <t>[{Type:1,Value:1000}]</t>
+    <t>{Tri:[0],Con:[],Do:[{t:1,e:1000001}]}</t>
+  </si>
+  <si>
+    <t>[5,4,3,2,1]</t>
   </si>
   <si>
     <t>赐福增寿</t>
@@ -157,7 +148,7 @@
     <t>战斗开始时，增加角色100%的复活概率，且复活后回复12%总血量</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>{Tri:[4],Con:[],Do:[{t:1,e:1000001}]}</t>
   </si>
   <si>
     <t>鬼影重重</t>
@@ -202,10 +193,25 @@
     <t>每次攻击前,都会获取10%的基础攻击力加成</t>
   </si>
   <si>
-    <t>[{Tri:[4],Con:[],Do:[{t:1,e:1000001}]}]</t>
-  </si>
-  <si>
     <t>强健体魄</t>
+  </si>
+  <si>
+    <t>闪避疲劳</t>
+  </si>
+  <si>
+    <t>单回合内，每当闪避敌方攻击时，会给自己添加一个可叠加的DeBuff</t>
+  </si>
+  <si>
+    <t>{Tri:[11],Con:[],Do:[{t:1,e:1000001}]}</t>
+  </si>
+  <si>
+    <t>抗闪避疲劳</t>
+  </si>
+  <si>
+    <t>单回合内，每当命中敌方时会给自己添加一个可叠加的DeBuff</t>
+  </si>
+  <si>
+    <t>{Tri:[10],Con:[],Do:[{t:1,e:1000001}]}</t>
   </si>
 </sst>
 </file>
@@ -1157,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1175,10 +1181,9 @@
     <col min="9" max="9" width="20.375" customWidth="1"/>
     <col min="10" max="10" width="75.7333333333333" customWidth="1"/>
     <col min="11" max="11" width="46" customWidth="1"/>
-    <col min="12" max="12" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1212,125 +1217,115 @@
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="2" ht="95" customHeight="1" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="95" customHeight="1" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A5" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1339,13 +1334,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1357,18 +1352,15 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -1377,13 +1369,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -1395,18 +1387,15 @@
         <v>0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1415,13 +1404,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -1433,18 +1422,15 @@
         <v>0</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -1453,13 +1439,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G8" s="4">
         <v>3</v>
@@ -1471,18 +1457,15 @@
         <v>0</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
@@ -1491,13 +1474,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G9" s="4">
         <v>3</v>
@@ -1509,18 +1492,15 @@
         <v>0</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
@@ -1529,13 +1509,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G10" s="4">
         <v>3</v>
@@ -1547,18 +1527,15 @@
         <v>0</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
@@ -1567,13 +1544,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G11" s="4">
         <v>3</v>
@@ -1585,18 +1562,15 @@
         <v>0</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
@@ -1605,13 +1579,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4">
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G12" s="4">
         <v>3</v>
@@ -1623,18 +1597,15 @@
         <v>0</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
@@ -1643,13 +1614,13 @@
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="4">
         <v>5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G13" s="4">
         <v>3</v>
@@ -1661,18 +1632,15 @@
         <v>0</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
         <v>10</v>
@@ -1681,13 +1649,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2">
         <v>4</v>
@@ -1699,18 +1667,15 @@
         <v>5</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4">
         <v>12</v>
@@ -1719,13 +1684,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G15" s="4">
         <v>2</v>
@@ -1737,18 +1702,15 @@
         <v>0</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4">
         <v>13</v>
@@ -1757,13 +1719,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G16" s="4">
         <v>2</v>
@@ -1775,18 +1737,15 @@
         <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:11">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4">
         <v>14</v>
@@ -1795,13 +1754,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E17" s="4">
         <v>3</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G17" s="4">
         <v>2</v>
@@ -1813,18 +1772,15 @@
         <v>0</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:11">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4">
         <v>15</v>
@@ -1833,13 +1789,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18" s="4">
         <v>4</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
@@ -1851,18 +1807,15 @@
         <v>0</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:11">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4">
         <v>16</v>
@@ -1871,13 +1824,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E19" s="4">
         <v>5</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G19" s="4">
         <v>2</v>
@@ -1889,18 +1842,15 @@
         <v>0</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:11">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4">
         <v>17</v>
@@ -1909,13 +1859,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
@@ -1927,18 +1877,15 @@
         <v>0</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:11">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4">
         <v>18</v>
@@ -1947,13 +1894,13 @@
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G21" s="4">
         <v>2</v>
@@ -1965,13 +1912,80 @@
         <v>0</v>
       </c>
       <c r="J21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>40</v>
+      <c r="K22" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:11">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Key</t>
   </si>
@@ -78,7 +78,7 @@
   </si>
   <si>
     <t xml:space="preserve">Buff的具体类型
-1:获得后无法再次获得，叠加。效果触发后，也不会再被触发
+1:获得后无法再次获得 与 叠加。
 2:携带了Buff等级字段,获得Buff后会刷新Buff持续回合数，如果新获得的Buff等级大于当前Buff等级，Buff将会变更等级。
 3:携带了Buff等级字段，调用Buff只能通过不停的堆叠 0 级Buff来增加Buff等级。Buff等级不会超过表中可找到的最大Buff等级。
 4:堆叠Buff，可以重复获得但不可被叠加。同类型最大堆叠MaxStack次
@@ -140,78 +140,6 @@
   </si>
   <si>
     <t>[5,4,3,2,1]</t>
-  </si>
-  <si>
-    <t>赐福增寿</t>
-  </si>
-  <si>
-    <t>战斗开始时，增加角色100%的复活概率，且复活后回复12%总血量</t>
-  </si>
-  <si>
-    <t>{Tri:[4],Con:[],Do:[{t:1,e:1000001}]}</t>
-  </si>
-  <si>
-    <t>鬼影重重</t>
-  </si>
-  <si>
-    <t>战斗开始时，基础攻击力提升10%，每次触发连击，将偷取敌方英雄10%的基础攻击力。</t>
-  </si>
-  <si>
-    <t>鬼影重重-汲取</t>
-  </si>
-  <si>
-    <t>触发鬼影重重判定用</t>
-  </si>
-  <si>
-    <t>汲取敌方英雄10%基础攻击力</t>
-  </si>
-  <si>
-    <t>汲取敌方英雄20%基础攻击力</t>
-  </si>
-  <si>
-    <t>汲取敌方英雄30%基础攻击力</t>
-  </si>
-  <si>
-    <t>汲取敌方英雄40%基础攻击力</t>
-  </si>
-  <si>
-    <t>汲取敌方英雄50%基础攻击力</t>
-  </si>
-  <si>
-    <t>摄魂夺魄</t>
-  </si>
-  <si>
-    <t>每次发起攻击时，都将增加自己%10的敌方英雄基础吸血</t>
-  </si>
-  <si>
-    <t>生命滋养-汲取</t>
-  </si>
-  <si>
-    <t>温水煮蛙</t>
-  </si>
-  <si>
-    <t>每次攻击前,都会获取10%的基础攻击力加成</t>
-  </si>
-  <si>
-    <t>强健体魄</t>
-  </si>
-  <si>
-    <t>闪避疲劳</t>
-  </si>
-  <si>
-    <t>单回合内，每当闪避敌方攻击时，会给自己添加一个可叠加的DeBuff</t>
-  </si>
-  <si>
-    <t>{Tri:[11],Con:[],Do:[{t:1,e:1000001}]}</t>
-  </si>
-  <si>
-    <t>抗闪避疲劳</t>
-  </si>
-  <si>
-    <t>单回合内，每当命中敌方时会给自己添加一个可叠加的DeBuff</t>
-  </si>
-  <si>
-    <t>{Tri:[10],Con:[],Do:[{t:1,e:1000001}]}</t>
   </si>
 </sst>
 </file>
@@ -1163,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="3" width="11.125" customWidth="1"/>
@@ -1358,636 +1286,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
-      <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:11">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:11">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:11">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="4">
-        <v>3</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:11">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:11">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:11">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:11">
-      <c r="A13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="4">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="4">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="4">
-        <v>3</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="2">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>5</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:11">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:11">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="4">
-        <v>2</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:11">
-      <c r="A17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="4">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="4">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:11">
-      <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="4">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4">
-        <v>6</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="4">
-        <v>4</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="4">
-        <v>2</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:11">
-      <c r="A19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="4">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="4">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="4">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:11">
-      <c r="A20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="4">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4">
-        <v>7</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="4">
-        <v>2</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:11">
-      <c r="A21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="4">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="4">
-        <v>2</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>19</v>
-      </c>
-      <c r="C22">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="J22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:11">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>20</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Key</t>
   </si>
@@ -136,10 +136,13 @@
     <t>战斗开始时增加角色10%的基础生命值加成。每次触发闪避时，对攻击者造成相当于本次攻击20%攻击的伤害</t>
   </si>
   <si>
-    <t>{Tri:[0],Con:[],Do:[{t:1,e:1000001}]}</t>
-  </si>
-  <si>
-    <t>[5,4,3,2,1]</t>
+    <t>{Tri:[3,4],Con:[],Do:[{t:1,e:1000001}]}</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>·</t>
   </si>
 </sst>
 </file>
@@ -1091,13 +1094,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="3" width="11.125" customWidth="1"/>
@@ -1286,6 +1289,11 @@
         <v>34</v>
       </c>
     </row>
+    <row r="10" spans="7:7">
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Key</t>
   </si>
@@ -130,16 +130,28 @@
     <t>T</t>
   </si>
   <si>
-    <t>护身辟邪</t>
-  </si>
-  <si>
-    <t>战斗开始时增加角色10%的基础生命值加成。每次触发闪避时，对攻击者造成相当于本次攻击20%攻击的伤害</t>
-  </si>
-  <si>
-    <t>{Tri:[3,4],Con:[],Do:[{t:1,e:1000001}]}</t>
-  </si>
-  <si>
-    <t>[5]</t>
+    <t>越战越勇</t>
+  </si>
+  <si>
+    <t>战斗开始时增加10%基础生命。并获得 《越战越勇-横冲直撞》的Buff。</t>
+  </si>
+  <si>
+    <t>{Tri:[3,4],Con:[],Do:[{t:1,e:100009},{t:2,e:2}]}</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>越战越勇-横冲直撞</t>
+  </si>
+  <si>
+    <t>每次攻击后，增加玩家10%基础攻击力</t>
+  </si>
+  <si>
+    <t>{Tri:[3],Con:[],Do:[{t:1,e:100001}]]}</t>
+  </si>
+  <si>
+    <t>[2]</t>
   </si>
   <si>
     <t>·</t>
@@ -764,7 +776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +794,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1096,8 +1111,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1289,9 +1304,44 @@
         <v>34</v>
       </c>
     </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="10" spans="7:7">
       <c r="G10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Key</t>
   </si>
@@ -130,25 +130,34 @@
     <t>T</t>
   </si>
   <si>
-    <t>越战越勇</t>
+    <t>越战越勇(领域)</t>
   </si>
   <si>
     <t>战斗开始时增加10%基础生命。并获得 《越战越勇-横冲直撞》的Buff。</t>
   </si>
   <si>
-    <t>{Tri:[3,4],Con:[],Do:[{t:1,e:100009},{t:2,e:2}]}</t>
+    <t>{Tri:[3],Con:[],Do:[{t:1,e:100009},{t:2,e:2}]}</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>越战越勇-横冲直撞(领域)</t>
+  </si>
+  <si>
+    <t>每次攻击后，为玩家添加一个《越战越勇-横冲直撞》的Buff</t>
+  </si>
+  <si>
+    <t>{Tri:[5],Con:[],Do:[{t:2,e:3}]]}</t>
+  </si>
+  <si>
     <t>越战越勇-横冲直撞</t>
   </si>
   <si>
     <t>每次攻击后，增加玩家10%基础攻击力</t>
   </si>
   <si>
-    <t>{Tri:[3],Con:[],Do:[{t:1,e:100001}]]}</t>
+    <t>{Tri:[3],Con:[],Do:[{t:1,e:100009}]]}</t>
   </si>
   <si>
     <t>[2]</t>
@@ -1111,8 +1120,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1121,7 +1130,7 @@
     <col min="2" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="9.55833333333333" customWidth="1"/>
-    <col min="6" max="6" width="22.9416666666667" customWidth="1"/>
+    <col min="6" max="6" width="33.5666666666667" customWidth="1"/>
     <col min="7" max="7" width="19.4083333333333" customWidth="1"/>
     <col min="8" max="8" width="8.975" customWidth="1"/>
     <col min="9" max="9" width="20.375" customWidth="1"/>
@@ -1324,24 +1333,59 @@
         <v>36</v>
       </c>
       <c r="G6" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>37</v>
       </c>
       <c r="K6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>38</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="7:7">
       <c r="G10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>Key</t>
   </si>
@@ -163,7 +163,67 @@
     <t>[2]</t>
   </si>
   <si>
-    <t>·</t>
+    <t>命中疲劳(领域)</t>
+  </si>
+  <si>
+    <t>单回合内每次命中敌人时，攻击者将会掉以轻心，闪避概率将会降低10%</t>
+  </si>
+  <si>
+    <t>{Tri:[10],Con:[],Do:[{t:2,e:2}]}</t>
+  </si>
+  <si>
+    <t>命中疲劳-狂妄自大</t>
+  </si>
+  <si>
+    <t>总闪避概率将会降低10%。我知道这是不对的，但是我没办法改变</t>
+  </si>
+  <si>
+    <t>{Tri:[3],Con:[],Do:[{t:1,e:100009}]}</t>
+  </si>
+  <si>
+    <t>闪避疲劳(领域)</t>
+  </si>
+  <si>
+    <t>当己方闪避了敌方的攻击时，己方闪避率降低10%</t>
+  </si>
+  <si>
+    <t>闪避疲劳-行动僵直</t>
+  </si>
+  <si>
+    <t>虽然进行了灵活的闪避，但是颇为费力，本回合闪避概率降低10%</t>
+  </si>
+  <si>
+    <t>连击疲劳(领域)</t>
+  </si>
+  <si>
+    <t>触发连击时，消耗了大量气力，获得可叠加《连击疲劳-酸软发力》</t>
+  </si>
+  <si>
+    <t>连击疲劳-酸软发力</t>
+  </si>
+  <si>
+    <t>消耗了大量气力，降低10%连击概率</t>
+  </si>
+  <si>
+    <t>抗连击疲劳(领域)</t>
+  </si>
+  <si>
+    <t>在抵抗连击时，消耗了心神，获得可叠加《抗连及疲劳-无力招架》</t>
+  </si>
+  <si>
+    <t>抗连击疲劳-无力招架</t>
+  </si>
+  <si>
+    <t>消耗了大量心神，降低10%抗连击概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 反击疲劳(领域)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玩家成功反击了敌方攻击，消耗大量的体力，获得可叠加 </t>
+  </si>
+  <si>
+    <t>反击疲劳-渐渐力竭</t>
   </si>
 </sst>
 </file>
@@ -789,23 +849,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1118,274 +1178,587 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="9.55833333333333" customWidth="1"/>
-    <col min="6" max="6" width="33.5666666666667" customWidth="1"/>
-    <col min="7" max="7" width="19.4083333333333" customWidth="1"/>
-    <col min="8" max="8" width="8.975" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
-    <col min="10" max="10" width="75.7333333333333" customWidth="1"/>
-    <col min="11" max="11" width="46" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.55833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.5666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.4083333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.975" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="75.7333333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="46" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="95" customHeight="1" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>0</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="7:7">
-      <c r="G10" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="88">
   <si>
     <t>Key</t>
   </si>
@@ -224,6 +224,81 @@
   </si>
   <si>
     <t>反击疲劳-渐渐力竭</t>
+  </si>
+  <si>
+    <t>玩家由于连续的反击，已经筋疲力尽了，获得10%的反击衰减</t>
+  </si>
+  <si>
+    <t>抗反击疲劳(领域)</t>
+  </si>
+  <si>
+    <t>抗反击疲劳-虎口震咧</t>
+  </si>
+  <si>
+    <t>未能阻止敌方的反击，获得10%的抗反击衰减</t>
+  </si>
+  <si>
+    <t>{Tri:[11],Con:[],Do:[{t:3,e:4001}]}</t>
+  </si>
+  <si>
+    <t>回马荡刀</t>
+  </si>
+  <si>
+    <t>使用刀进行抵抗闪避，并荡开敌方的攻击，对敌方造成40%攻击力的伤害</t>
+  </si>
+  <si>
+    <t>{Tri:[11],Con:[],Do:[{t:3,e:4501}]}</t>
+  </si>
+  <si>
+    <t>使用刀进行抵抗闪避，并荡开敌方的攻击，对敌方造成45%攻击力的伤害</t>
+  </si>
+  <si>
+    <t>{Tri:[11],Con:[],Do:[{t:3,e:5001}]}</t>
+  </si>
+  <si>
+    <t>使用刀进行抵抗闪避，并荡开敌方的攻击，对敌方造成50%攻击力的伤害</t>
+  </si>
+  <si>
+    <t>{Tri:[11],Con:[],Do:[{t:3,e:6001}]}</t>
+  </si>
+  <si>
+    <t>使用刀进行抵抗闪避，并荡开敌方的攻击，对敌方造成60%攻击力的伤害</t>
+  </si>
+  <si>
+    <t>{Tri:[11],Con:[],Do:[{t:3,e:6501}]}</t>
+  </si>
+  <si>
+    <t>使用刀进行抵抗闪避，并荡开敌方的攻击，对敌方造成65%攻击力的伤害</t>
+  </si>
+  <si>
+    <t>{Tri:[11],Con:[],Do:[{t:3,e:7001}]}</t>
+  </si>
+  <si>
+    <t>使用刀进行抵抗闪避，并荡开敌方的攻击，对敌方造成70%攻击力的伤害</t>
+  </si>
+  <si>
+    <t>{Tri:[11],Con:[],Do:[{t:3,e:8001}]}</t>
+  </si>
+  <si>
+    <t>使用刀进行抵抗闪避，并荡开敌方的攻击，对敌方造成80%攻击力的伤害</t>
+  </si>
+  <si>
+    <t>{Tri:[11],Con:[],Do:[{t:3,e:9001}]}</t>
+  </si>
+  <si>
+    <t>使用刀进行抵抗闪避，并荡开敌方的攻击，对敌方造成90%攻击力的伤害</t>
+  </si>
+  <si>
+    <t>{Tri:[11],Con:[],Do:[{t:3,e:10001}]}</t>
+  </si>
+  <si>
+    <t>使用刀进行抵抗闪避，并荡开敌方的攻击，对敌方造成100%攻击力的伤害</t>
+  </si>
+  <si>
+    <t>使用刀进行抵抗闪避，并荡开敌方的攻击，对敌方造成110%攻击力的伤害</t>
+  </si>
+  <si>
+    <t>{Tri:[11],Con:[],Do:[{t:3,e:11001}]}</t>
   </si>
 </sst>
 </file>
@@ -845,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,13 +931,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1178,10 +1247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1200,177 +1269,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="95" customHeight="1" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1393,7 +1462,7 @@
       <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="2">
@@ -1712,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
         <v>5</v>
@@ -1724,7 +1793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1743,8 +1812,23 @@
       <c r="F16" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1759,6 +1843,444 @@
       </c>
       <c r="E17" s="2">
         <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>10</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="2">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="2">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
